--- a/lab4.xlsx
+++ b/lab4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProjects\software-testing-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763CDA34-F58A-459C-8A59-3F4207533AC9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784E2030-DB10-4669-ADA5-E7A6E7F06A4A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6360" yWindow="3360" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Легенда" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="137">
   <si>
     <t>V1.0</t>
   </si>
@@ -436,6 +436,12 @@
   </si>
   <si>
     <t>Ширина таблицы подстраивается под ширину экрана</t>
+  </si>
+  <si>
+    <t>#13</t>
+  </si>
+  <si>
+    <t>#12</t>
   </si>
 </sst>
 </file>
@@ -1003,6 +1009,42 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1010,39 +1052,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1057,15 +1072,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1458,20 +1464,20 @@
       <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
     </row>
     <row r="3" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
@@ -1480,107 +1486,107 @@
       <c r="A4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="59"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="71"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="59"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="71"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="69"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="62"/>
     </row>
     <row r="8" spans="1:7" s="18" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="71"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="65"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="56"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="68"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="56"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="68"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="56"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="68"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="56"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="68"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="56"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="68"/>
     </row>
     <row r="14" spans="1:7" s="21" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="63"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="74"/>
     </row>
     <row r="15" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
@@ -1612,11 +1618,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A8:D8"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B5:D5"/>
@@ -1625,6 +1626,11 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1638,10 +1644,10 @@
   <dimension ref="A1:M62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C62" sqref="C62"/>
+      <selection pane="bottomRight" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1674,19 +1680,19 @@
         <v>15</v>
       </c>
       <c r="B2" s="6"/>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="73"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="76"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -1736,17 +1742,17 @@
       <c r="B4" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="76"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="79"/>
     </row>
     <row r="5" spans="1:13" ht="75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
@@ -1755,7 +1761,7 @@
       <c r="B5" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="77"/>
+      <c r="C5" s="54"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -1812,7 +1818,7 @@
       <c r="B8" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="77"/>
+      <c r="C8" s="54"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
@@ -1831,7 +1837,7 @@
       <c r="B9" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="78"/>
+      <c r="C9" s="55"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
@@ -1869,7 +1875,7 @@
       <c r="B11" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="77"/>
+      <c r="C11" s="54"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
@@ -1888,7 +1894,7 @@
       <c r="B12" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="77"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -1907,7 +1913,7 @@
       <c r="B13" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="77"/>
+      <c r="C13" s="54"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
@@ -1926,7 +1932,7 @@
       <c r="B14" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="77"/>
+      <c r="C14" s="54"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -1945,7 +1951,7 @@
       <c r="B15" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="78"/>
+      <c r="C15" s="55"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
@@ -1964,7 +1970,7 @@
       <c r="B16" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="77"/>
+      <c r="C16" s="54"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
@@ -1983,7 +1989,7 @@
       <c r="B17" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="77"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
@@ -2002,7 +2008,7 @@
       <c r="B18" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="77"/>
+      <c r="C18" s="54"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
@@ -2040,7 +2046,7 @@
       <c r="B20" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="77"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
@@ -2078,7 +2084,7 @@
       <c r="B22" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="C22" s="77"/>
+      <c r="C22" s="54"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
@@ -2097,7 +2103,7 @@
       <c r="B23" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="77"/>
+      <c r="C23" s="54"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
@@ -2135,7 +2141,7 @@
       <c r="B25" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="77"/>
+      <c r="C25" s="54"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
@@ -2154,7 +2160,7 @@
       <c r="B26" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="78"/>
+      <c r="C26" s="55"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
@@ -2173,7 +2179,7 @@
       <c r="B27" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="77"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
@@ -2192,7 +2198,7 @@
       <c r="B28" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="C28" s="79"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
@@ -2211,7 +2217,7 @@
       <c r="B29" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="C29" s="77"/>
+      <c r="C29" s="54"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
@@ -2249,7 +2255,7 @@
       <c r="B31" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="77"/>
+      <c r="C31" s="54"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
@@ -2268,7 +2274,7 @@
       <c r="B32" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="78"/>
+      <c r="C32" s="55"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
@@ -2287,7 +2293,7 @@
       <c r="B33" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="77"/>
+      <c r="C33" s="54"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
@@ -2306,7 +2312,7 @@
       <c r="B34" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="77"/>
+      <c r="C34" s="54"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
@@ -2325,7 +2331,7 @@
       <c r="B35" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="77"/>
+      <c r="C35" s="54"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
@@ -2344,7 +2350,7 @@
       <c r="B36" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="77"/>
+      <c r="C36" s="54"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
@@ -2363,7 +2369,7 @@
       <c r="B37" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="C37" s="77"/>
+      <c r="C37" s="54"/>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
@@ -2382,7 +2388,7 @@
       <c r="B38" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="78"/>
+      <c r="C38" s="55"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
@@ -2458,7 +2464,7 @@
       <c r="B42" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="77"/>
+      <c r="C42" s="54"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
@@ -2477,7 +2483,7 @@
       <c r="B43" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="78"/>
+      <c r="C43" s="55"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
@@ -2515,7 +2521,7 @@
       <c r="B45" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="C45" s="77"/>
+      <c r="C45" s="54"/>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
       <c r="F45" s="14"/>
@@ -2534,7 +2540,7 @@
       <c r="B46" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="C46" s="77"/>
+      <c r="C46" s="54"/>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
@@ -2553,7 +2559,7 @@
       <c r="B47" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="C47" s="77"/>
+      <c r="C47" s="54"/>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
@@ -2572,7 +2578,9 @@
       <c r="B48" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="C48" s="79"/>
+      <c r="C48" s="56" t="s">
+        <v>136</v>
+      </c>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
@@ -2591,7 +2599,7 @@
       <c r="B49" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="C49" s="78"/>
+      <c r="C49" s="55"/>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
@@ -2629,7 +2637,7 @@
       <c r="B51" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="C51" s="77"/>
+      <c r="C51" s="54"/>
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
@@ -2667,7 +2675,7 @@
       <c r="B53" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="C53" s="77"/>
+      <c r="C53" s="54"/>
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
       <c r="F53" s="14"/>
@@ -2686,7 +2694,7 @@
       <c r="B54" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="C54" s="77"/>
+      <c r="C54" s="54"/>
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
@@ -2724,7 +2732,7 @@
       <c r="B56" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="C56" s="77"/>
+      <c r="C56" s="54"/>
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
@@ -2743,7 +2751,7 @@
       <c r="B57" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="C57" s="77"/>
+      <c r="C57" s="54"/>
       <c r="D57" s="14"/>
       <c r="E57" s="14"/>
       <c r="F57" s="14"/>
@@ -2800,7 +2808,9 @@
       <c r="B60" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="C60" s="79"/>
+      <c r="C60" s="56" t="s">
+        <v>135</v>
+      </c>
       <c r="D60" s="14"/>
       <c r="E60" s="14"/>
       <c r="F60" s="14"/>
@@ -2819,7 +2829,7 @@
       <c r="B61" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="C61" s="78"/>
+      <c r="C61" s="55"/>
       <c r="D61" s="14"/>
       <c r="E61" s="14"/>
       <c r="F61" s="14"/>

--- a/lab4.xlsx
+++ b/lab4.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProjects\software-testing-course\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bsu\Тестирование\software-testing-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784E2030-DB10-4669-ADA5-E7A6E7F06A4A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="3360" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6360" yWindow="3360" windowWidth="21600" windowHeight="11385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Легенда" sheetId="4" r:id="rId1"/>
@@ -27,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="137">
-  <si>
-    <t>V1.0</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="193">
   <si>
     <t>N/A</t>
   </si>
@@ -39,36 +35,6 @@
   </si>
   <si>
     <t>V1.0.0</t>
-  </si>
-  <si>
-    <t>V1.1</t>
-  </si>
-  <si>
-    <t>V1.2</t>
-  </si>
-  <si>
-    <t>V1.3</t>
-  </si>
-  <si>
-    <t>V1.4</t>
-  </si>
-  <si>
-    <t>V1.5</t>
-  </si>
-  <si>
-    <t>V1.6</t>
-  </si>
-  <si>
-    <t>V1.7</t>
-  </si>
-  <si>
-    <t>V1.8</t>
-  </si>
-  <si>
-    <t>V1.9</t>
-  </si>
-  <si>
-    <t>V1.10</t>
   </si>
   <si>
     <t>№</t>
@@ -443,15 +409,216 @@
   <si>
     <t>#12</t>
   </si>
+  <si>
+    <t>1.5.1</t>
+  </si>
+  <si>
+    <t>1.5.2</t>
+  </si>
+  <si>
+    <t>1.5.2.1</t>
+  </si>
+  <si>
+    <t>1.5.3</t>
+  </si>
+  <si>
+    <t>1.5.3.1</t>
+  </si>
+  <si>
+    <t>1.5.3.2</t>
+  </si>
+  <si>
+    <t>1.5.3.3</t>
+  </si>
+  <si>
+    <t>1.5.3.4</t>
+  </si>
+  <si>
+    <t>1.5.3.5</t>
+  </si>
+  <si>
+    <t>1.5.3.6</t>
+  </si>
+  <si>
+    <t>1.5.3.7</t>
+  </si>
+  <si>
+    <t>1.5.3.8</t>
+  </si>
+  <si>
+    <t>1.5.3.9</t>
+  </si>
+  <si>
+    <t>1.5.3.9.1</t>
+  </si>
+  <si>
+    <t>1.5.3.9.2</t>
+  </si>
+  <si>
+    <t>1.5.3.9.2.2</t>
+  </si>
+  <si>
+    <t>1.5.3.9.2.1</t>
+  </si>
+  <si>
+    <t>1.5.3.9.3</t>
+  </si>
+  <si>
+    <t>1.5.3.9.3.1</t>
+  </si>
+  <si>
+    <t>1.5.3.9.3.2</t>
+  </si>
+  <si>
+    <t>1.5.3.9.3.3</t>
+  </si>
+  <si>
+    <t>1.5.3.9.4</t>
+  </si>
+  <si>
+    <t>1.5.3.9.5</t>
+  </si>
+  <si>
+    <t>1.5.4</t>
+  </si>
+  <si>
+    <t>Отмена редактирования проекта</t>
+  </si>
+  <si>
+    <t>Сохранение изменений в проекте</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>1.8.1</t>
+  </si>
+  <si>
+    <t>1.8.2</t>
+  </si>
+  <si>
+    <t>1.7.2</t>
+  </si>
+  <si>
+    <t>1.7.1</t>
+  </si>
+  <si>
+    <t>Переход к списку проектов по нажатию на кнопку "Отмена" с заполненными полями</t>
+  </si>
+  <si>
+    <t>Переход к списку проектов по нажатию на кнопку "Отмена" с незаполненными полями</t>
+  </si>
+  <si>
+    <t>1.5.4.1</t>
+  </si>
+  <si>
+    <t>1.5.4.2</t>
+  </si>
+  <si>
+    <t>1.5.4.3</t>
+  </si>
+  <si>
+    <t>1.5.4.4</t>
+  </si>
+  <si>
+    <t>1.5.4.5</t>
+  </si>
+  <si>
+    <t>1.5.4.6</t>
+  </si>
+  <si>
+    <t>1.5.4.7</t>
+  </si>
+  <si>
+    <t>1.5.4.8</t>
+  </si>
+  <si>
+    <t>1.5.4.9</t>
+  </si>
+  <si>
+    <t>1.5.4.9.1</t>
+  </si>
+  <si>
+    <t>1.5.4.9.2</t>
+  </si>
+  <si>
+    <t>1.5.4.9.3</t>
+  </si>
+  <si>
+    <t>1.5.4.9.4</t>
+  </si>
+  <si>
+    <t>1.5.4.9.2.1</t>
+  </si>
+  <si>
+    <t>1.5.4.9.2.2</t>
+  </si>
+  <si>
+    <t>1.5.4.9.3.1</t>
+  </si>
+  <si>
+    <t>1.5.4.9.3.2</t>
+  </si>
+  <si>
+    <t>1.5.4.9.3.3</t>
+  </si>
+  <si>
+    <t>1.5.4.9.5</t>
+  </si>
+  <si>
+    <t>1.5.5</t>
+  </si>
+  <si>
+    <t>1.5.5.1</t>
+  </si>
+  <si>
+    <t>Буквы 2 алфавитов</t>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>Mob</t>
+  </si>
+  <si>
+    <t>web</t>
+  </si>
+  <si>
+    <t>mob v2</t>
+  </si>
+  <si>
+    <t>#15</t>
+  </si>
+  <si>
+    <t>#16</t>
+  </si>
+  <si>
+    <t>#17</t>
+  </si>
+  <si>
+    <t>#18</t>
+  </si>
+  <si>
+    <t>#19</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>#20</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -582,8 +749,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -666,8 +842,13 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -860,13 +1041,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1003,12 +1200,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="14" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1017,33 +1208,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1052,12 +1216,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1073,11 +1264,45 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="16" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Good" xfId="2" builtinId="26"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="4">
+    <cellStyle name="Контрольная ячейка" xfId="3" builtinId="23"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="1" builtinId="27"/>
+    <cellStyle name="Хороший" xfId="2" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1122,9 +1347,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1162,7 +1387,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1197,23 +1422,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1249,26 +1457,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1441,7 +1632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1464,160 +1655,165 @@
       <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
+      <c r="A2" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
     </row>
     <row r="3" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
+      <c r="A3" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
+        <v>6</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="72" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="71"/>
+        <v>8</v>
+      </c>
+      <c r="B5" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="59"/>
+      <c r="D5" s="60"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="69" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="70"/>
-      <c r="D6" s="71"/>
+        <v>9</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="59"/>
+      <c r="D6" s="60"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="62"/>
+        <v>27</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="69"/>
+      <c r="D7" s="70"/>
     </row>
     <row r="8" spans="1:7" s="18" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="65"/>
+      <c r="A8" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="72"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="68"/>
+        <v>1</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="56"/>
+      <c r="D9" s="57"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="68"/>
+        <v>31</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="56"/>
+      <c r="D10" s="57"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="66" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="67"/>
-      <c r="D11" s="68"/>
+        <v>31</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="56"/>
+      <c r="D11" s="57"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="68"/>
+        <v>30</v>
+      </c>
+      <c r="B12" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="56"/>
+      <c r="D12" s="57"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="68"/>
+        <v>0</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="56"/>
+      <c r="D13" s="57"/>
     </row>
     <row r="14" spans="1:7" s="21" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="73"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="74"/>
+      <c r="A14" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="64"/>
     </row>
     <row r="15" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A8:D8"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B5:D5"/>
@@ -1626,28 +1822,23 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:M62"/>
+  <dimension ref="A1:M113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C48" sqref="C48"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1660,7 +1851,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="1"/>
@@ -1677,92 +1868,76 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B2" s="6"/>
-      <c r="C2" s="75" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="76"/>
+      <c r="C2" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="74"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>13</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="10"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="34">
         <v>1</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="79"/>
+        <v>32</v>
+      </c>
+      <c r="C4" s="75"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="77"/>
     </row>
     <row r="5" spans="1:13" ht="75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="14"/>
+        <v>33</v>
+      </c>
+      <c r="C5" s="52"/>
+      <c r="D5" s="81" t="s">
+        <v>186</v>
+      </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
@@ -1775,13 +1950,12 @@
     </row>
     <row r="6" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C6" s="28"/>
-      <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
@@ -1794,13 +1968,15 @@
     </row>
     <row r="7" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C7" s="28"/>
-      <c r="D7" s="14"/>
+      <c r="D7" s="81" t="s">
+        <v>186</v>
+      </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
@@ -1813,13 +1989,13 @@
     </row>
     <row r="8" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="41" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="14"/>
+        <v>39</v>
+      </c>
+      <c r="C8" s="52"/>
+      <c r="D8" s="82"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
@@ -1832,13 +2008,13 @@
     </row>
     <row r="9" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="14"/>
+        <v>41</v>
+      </c>
+      <c r="C9" s="53"/>
+      <c r="D9" s="82"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
@@ -1851,13 +2027,13 @@
     </row>
     <row r="10" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C10" s="28"/>
-      <c r="D10" s="14"/>
+      <c r="D10" s="78"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
@@ -1870,13 +2046,13 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="43" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="14"/>
+        <v>45</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11" s="78"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
@@ -1889,13 +2065,13 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="14"/>
+        <v>47</v>
+      </c>
+      <c r="C12" s="52"/>
+      <c r="D12" s="82"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
@@ -1908,13 +2084,13 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="14"/>
+        <v>49</v>
+      </c>
+      <c r="C13" s="52"/>
+      <c r="D13" s="82"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
@@ -1927,13 +2103,13 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="45" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="14"/>
+        <v>51</v>
+      </c>
+      <c r="C14" s="52"/>
+      <c r="D14" s="82"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
@@ -1946,13 +2122,13 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="45" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="14"/>
+        <v>53</v>
+      </c>
+      <c r="C15" s="53"/>
+      <c r="D15" s="82"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
@@ -1965,13 +2141,13 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="45" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="14"/>
+        <v>104</v>
+      </c>
+      <c r="C16" s="52"/>
+      <c r="D16" s="82"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
@@ -1984,13 +2160,13 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="45" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="14"/>
+        <v>83</v>
+      </c>
+      <c r="C17" s="52"/>
+      <c r="D17" s="82"/>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
@@ -2003,13 +2179,13 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="14"/>
+        <v>53</v>
+      </c>
+      <c r="C18" s="52"/>
+      <c r="D18" s="82"/>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
@@ -2022,13 +2198,13 @@
     </row>
     <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C19" s="28"/>
-      <c r="D19" s="14"/>
+      <c r="D19" s="78"/>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
@@ -2041,13 +2217,13 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="45" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="14"/>
+        <v>60</v>
+      </c>
+      <c r="C20" s="52"/>
+      <c r="D20" s="82"/>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
@@ -2060,13 +2236,13 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C21" s="29"/>
-      <c r="D21" s="14"/>
+      <c r="D21" s="78"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
@@ -2079,13 +2255,13 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B22" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="14"/>
+        <v>84</v>
+      </c>
+      <c r="C22" s="52"/>
+      <c r="D22" s="82"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
@@ -2098,13 +2274,13 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="45" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B23" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="54"/>
-      <c r="D23" s="14"/>
+        <v>81</v>
+      </c>
+      <c r="C23" s="52"/>
+      <c r="D23" s="82"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
@@ -2117,13 +2293,13 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C24" s="28"/>
-      <c r="D24" s="14"/>
+      <c r="D24" s="78"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
@@ -2136,13 +2312,13 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="45" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B25" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="54"/>
-      <c r="D25" s="14"/>
+        <v>66</v>
+      </c>
+      <c r="C25" s="52"/>
+      <c r="D25" s="82"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
@@ -2155,13 +2331,13 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="45" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B26" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="55"/>
-      <c r="D26" s="14"/>
+        <v>67</v>
+      </c>
+      <c r="C26" s="53"/>
+      <c r="D26" s="82"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
@@ -2174,13 +2350,13 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="45" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B27" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="54"/>
-      <c r="D27" s="14"/>
+        <v>68</v>
+      </c>
+      <c r="C27" s="52"/>
+      <c r="D27" s="82"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
@@ -2193,13 +2369,17 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="45" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" s="56"/>
-      <c r="D28" s="14"/>
+        <v>103</v>
+      </c>
+      <c r="C28" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28" s="81" t="s">
+        <v>188</v>
+      </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
@@ -2212,13 +2392,13 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="45" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="C29" s="54"/>
-      <c r="D29" s="14"/>
+        <v>108</v>
+      </c>
+      <c r="C29" s="52"/>
+      <c r="D29" s="82"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
@@ -2231,13 +2411,13 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C30" s="28"/>
-      <c r="D30" s="14"/>
+      <c r="D30" s="78"/>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
@@ -2250,13 +2430,13 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="43" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B31" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="54"/>
-      <c r="D31" s="14"/>
+        <v>45</v>
+      </c>
+      <c r="C31"/>
+      <c r="D31" s="78"/>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
@@ -2269,13 +2449,13 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="45" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="55"/>
-      <c r="D32" s="14"/>
+        <v>47</v>
+      </c>
+      <c r="C32" s="53"/>
+      <c r="D32" s="82"/>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
@@ -2288,13 +2468,13 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="45" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="54"/>
-      <c r="D33" s="14"/>
+        <v>49</v>
+      </c>
+      <c r="C33" s="52"/>
+      <c r="D33" s="82"/>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
@@ -2307,13 +2487,13 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="45" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="54"/>
-      <c r="D34" s="14"/>
+        <v>51</v>
+      </c>
+      <c r="C34" s="52"/>
+      <c r="D34" s="82"/>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
@@ -2326,13 +2506,13 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="45" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="54"/>
-      <c r="D35" s="14"/>
+        <v>53</v>
+      </c>
+      <c r="C35" s="52"/>
+      <c r="D35" s="82"/>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
@@ -2345,13 +2525,13 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="45" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" s="54"/>
-      <c r="D36" s="14"/>
+        <v>55</v>
+      </c>
+      <c r="C36" s="52"/>
+      <c r="D36" s="82"/>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
@@ -2364,13 +2544,17 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="45" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="C37" s="54"/>
-      <c r="D37" s="14"/>
+        <v>83</v>
+      </c>
+      <c r="C37" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="D37" s="52" t="s">
+        <v>191</v>
+      </c>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
@@ -2383,13 +2567,17 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="45" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B38" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" s="55"/>
-      <c r="D38" s="14"/>
+        <v>53</v>
+      </c>
+      <c r="C38" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="D38" s="52" t="s">
+        <v>191</v>
+      </c>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
@@ -2402,13 +2590,13 @@
     </row>
     <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="43" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B39" s="44" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C39" s="28"/>
-      <c r="D39" s="14"/>
+      <c r="D39" s="78"/>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
@@ -2421,13 +2609,17 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="45" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B40" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="14"/>
+        <v>60</v>
+      </c>
+      <c r="C40" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="D40" s="52" t="s">
+        <v>191</v>
+      </c>
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
@@ -2440,13 +2632,13 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="43" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B41" s="44" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C41" s="28"/>
-      <c r="D41" s="14"/>
+      <c r="D41" s="78"/>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
@@ -2459,13 +2651,17 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="43" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B42" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="C42" s="54"/>
-      <c r="D42" s="14"/>
+        <v>84</v>
+      </c>
+      <c r="C42" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="D42" s="52" t="s">
+        <v>191</v>
+      </c>
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
@@ -2478,13 +2674,17 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="45" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B43" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="55"/>
-      <c r="D43" s="14"/>
+        <v>81</v>
+      </c>
+      <c r="C43" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="D43" s="52" t="s">
+        <v>191</v>
+      </c>
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
@@ -2497,13 +2697,13 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="43" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B44" s="48" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C44" s="28"/>
-      <c r="D44" s="14"/>
+      <c r="D44" s="78"/>
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
       <c r="G44" s="14"/>
@@ -2516,13 +2716,17 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="45" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B45" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="C45" s="54"/>
-      <c r="D45" s="14"/>
+        <v>66</v>
+      </c>
+      <c r="C45" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="D45" s="52" t="s">
+        <v>191</v>
+      </c>
       <c r="E45" s="14"/>
       <c r="F45" s="14"/>
       <c r="G45" s="14"/>
@@ -2535,13 +2739,17 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="45" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B46" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="C46" s="54"/>
-      <c r="D46" s="14"/>
+        <v>67</v>
+      </c>
+      <c r="C46" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="D46" s="52" t="s">
+        <v>191</v>
+      </c>
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
       <c r="G46" s="14"/>
@@ -2554,13 +2762,17 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="45" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B47" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="C47" s="54"/>
-      <c r="D47" s="14"/>
+        <v>68</v>
+      </c>
+      <c r="C47" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="D47" s="52" t="s">
+        <v>191</v>
+      </c>
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
       <c r="G47" s="14"/>
@@ -2573,15 +2785,17 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="45" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B48" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C48" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="D48" s="14"/>
+        <v>70</v>
+      </c>
+      <c r="C48" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="D48" s="81" t="s">
+        <v>188</v>
+      </c>
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
       <c r="G48" s="14"/>
@@ -2594,13 +2808,17 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="45" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="C49" s="55"/>
-      <c r="D49" s="14"/>
+        <v>108</v>
+      </c>
+      <c r="C49" s="53" t="s">
+        <v>191</v>
+      </c>
+      <c r="D49" s="53" t="s">
+        <v>191</v>
+      </c>
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
       <c r="G49" s="14"/>
@@ -2611,15 +2829,15 @@
       <c r="L49" s="14"/>
       <c r="M49" s="14"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="39" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B50" s="40" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C50" s="28"/>
-      <c r="D50" s="14"/>
+      <c r="D50" s="78"/>
       <c r="E50" s="14"/>
       <c r="F50" s="14"/>
       <c r="G50" s="14"/>
@@ -2630,15 +2848,19 @@
       <c r="L50" s="14"/>
       <c r="M50" s="14"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="45" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="C51" s="54"/>
-      <c r="D51" s="14"/>
+        <v>108</v>
+      </c>
+      <c r="C51" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="D51" s="83" t="s">
+        <v>0</v>
+      </c>
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
       <c r="G51" s="14"/>
@@ -2649,15 +2871,15 @@
       <c r="L51" s="14"/>
       <c r="M51" s="14"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A52" s="37" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B52" s="38" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C52" s="28"/>
-      <c r="D52" s="14"/>
+      <c r="D52" s="78"/>
       <c r="E52" s="14"/>
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
@@ -2670,13 +2892,17 @@
     </row>
     <row r="53" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="49" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B53" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="C53" s="54"/>
-      <c r="D53" s="14"/>
+        <v>78</v>
+      </c>
+      <c r="C53" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="D53" s="52" t="s">
+        <v>191</v>
+      </c>
       <c r="E53" s="14"/>
       <c r="F53" s="14"/>
       <c r="G53" s="14"/>
@@ -2689,13 +2915,17 @@
     </row>
     <row r="54" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="49" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B54" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="C54" s="54"/>
-      <c r="D54" s="14"/>
+        <v>80</v>
+      </c>
+      <c r="C54" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="D54" s="52" t="s">
+        <v>191</v>
+      </c>
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
       <c r="G54" s="14"/>
@@ -2708,13 +2938,13 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="37" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B55" s="38" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C55" s="29"/>
-      <c r="D55" s="14"/>
+      <c r="D55" s="78"/>
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
       <c r="G55" s="14"/>
@@ -2727,13 +2957,17 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="49" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B56" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="C56" s="54"/>
-      <c r="D56" s="14"/>
+        <v>114</v>
+      </c>
+      <c r="C56" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="D56" s="52" t="s">
+        <v>191</v>
+      </c>
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
       <c r="G56" s="14"/>
@@ -2746,13 +2980,17 @@
     </row>
     <row r="57" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="49" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="B57" s="50" t="s">
-        <v>126</v>
-      </c>
-      <c r="C57" s="54"/>
-      <c r="D57" s="14"/>
+        <v>115</v>
+      </c>
+      <c r="C57" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="D57" s="52" t="s">
+        <v>191</v>
+      </c>
       <c r="E57" s="14"/>
       <c r="F57" s="14"/>
       <c r="G57" s="14"/>
@@ -2765,13 +3003,13 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="37" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B58" s="38" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C58" s="28"/>
-      <c r="D58" s="14"/>
+      <c r="D58" s="78"/>
       <c r="E58" s="14"/>
       <c r="F58" s="14"/>
       <c r="G58" s="14"/>
@@ -2782,15 +3020,19 @@
       <c r="L58" s="14"/>
       <c r="M58" s="14"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="B59" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="C59" s="28"/>
-      <c r="D59" s="14"/>
+    <row r="59" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A59" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B59" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="D59" s="81" t="s">
+        <v>189</v>
+      </c>
       <c r="E59" s="14"/>
       <c r="F59" s="14"/>
       <c r="G59" s="14"/>
@@ -2802,17 +3044,15 @@
       <c r="M59" s="14"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="B60" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="C60" s="56" t="s">
-        <v>135</v>
-      </c>
+      <c r="A60" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="B60" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60" s="84"/>
       <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
+      <c r="E60" s="78"/>
       <c r="F60" s="14"/>
       <c r="G60" s="14"/>
       <c r="H60" s="14"/>
@@ -2823,36 +3063,687 @@
       <c r="M60" s="14"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="49" t="s">
+      <c r="A61" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="B61" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="D61" s="90" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="B62" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62" s="84"/>
+      <c r="D62" s="88"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="B63" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C63" s="84"/>
+      <c r="D63" s="88"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="B64" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="D64" s="85" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="B65" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C65" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="D65" s="85" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="B61" s="50" t="s">
+      <c r="B66" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C66" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="D66" s="85" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="C61" s="55"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="14"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C62" s="52"/>
-      <c r="D62" s="53"/>
-      <c r="E62" s="53"/>
-      <c r="F62" s="53"/>
-      <c r="G62" s="53"/>
-      <c r="H62" s="53"/>
-      <c r="I62" s="53"/>
-      <c r="J62" s="53"/>
-      <c r="K62" s="53"/>
-      <c r="L62" s="53"/>
-      <c r="M62" s="53"/>
+      <c r="B67" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C67" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="D67" s="85" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="B68" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="C68" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="D68" s="85" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C69" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="D69" s="85" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="D70" s="85" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="B71" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C71" s="84"/>
+      <c r="D71" s="88"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="B72" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="C72" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="D72" s="85" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="B73" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C73" s="84"/>
+      <c r="D73" s="88"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="B74" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="C74" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="D74" s="85" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="B75" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="C75" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="D75" s="85" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="B76" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C76" s="84"/>
+      <c r="D76" s="88"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="B77" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C77" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="D77" s="85" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="B78" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C78" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="D78" s="85" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="B79" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C79" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="D79" s="85" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="B80" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C80" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="D80" s="89" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="B81" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="C81" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="D81" s="90" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="B82" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C82" s="84"/>
+      <c r="D82" s="88"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="B83" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C83" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="D83" s="85" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="79" t="s">
+        <v>161</v>
+      </c>
+      <c r="B84" s="80" t="s">
+        <v>181</v>
+      </c>
+      <c r="C84" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="D84" s="85" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="B85" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C85" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="D85" s="85" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="B86" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C86" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="D86" s="85" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="B87" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C87" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="D87" s="85" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="B88" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C88" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="D88" s="85" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="B89" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C89" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="D89" s="85" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="B90" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C90" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="D90" s="85" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="B91" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C91" s="84"/>
+      <c r="D91" s="88"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="B92" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="C92" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="D92" s="90" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="B93" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C93" s="84"/>
+      <c r="D93" s="88"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="B94" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="C94" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="D94" s="90" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="B95" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="C95" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="D95" s="90" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="B96" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C96" s="84"/>
+      <c r="D96" s="88"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="B97" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C97" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="D97" s="85" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="B98" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C98" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="D98" s="85" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="B99" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C99" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="D99" s="85" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="B100" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C100" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="D100" s="33" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="B101" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="C101" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="D101" s="85" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="B102" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="C102" s="84"/>
+      <c r="D102" s="88"/>
+    </row>
+    <row r="103" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="B103" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="C103" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="D103" s="83" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="B104" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="C104" s="84"/>
+      <c r="D104" s="88"/>
+    </row>
+    <row r="105" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="B105" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="C105" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="D105" s="90" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="B106" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="C106" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="D106" s="90" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="B107" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="C107" s="84"/>
+      <c r="D107" s="88"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="B108" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="C108" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="D108" s="85" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="B109" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="C109" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="D109" s="85" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="B110" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="C110" s="84"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="B111" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="C111" s="86" t="s">
+        <v>124</v>
+      </c>
+      <c r="D111" s="89" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="B112" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="C112" s="87" t="s">
+        <v>191</v>
+      </c>
+      <c r="D112" s="90" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C113" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D113" t="s">
+        <v>183</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2860,7 +3751,7 @@
     <mergeCell ref="C4:M4"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C65552:C65559 C983075:C983078 C917539:C917542 C852003:C852006 C786467:C786470 C720931:C720934 C655395:C655398 C589859:C589862 C524323:C524326 C458787:C458790 C393251:C393254 C327715:C327718 C262179:C262182 C196643:C196646 C131107:C131110 C65571:C65574 C983071:C983073 C917535:C917537 C851999:C852001 C786463:C786465 C720927:C720929 C655391:C655393 C589855:C589857 C524319:C524321 C458783:C458785 C393247:C393249 C327711:C327713 C262175:C262177 C196639:C196641 C131103:C131105 C65567:C65569 C983065:C983069 C917529:C917533 C851993:C851997 C786457:C786461 C720921:C720925 C655385:C655389 C589849:C589853 C524313:C524317 C458777:C458781 C393241:C393245 C327705:C327709 C262169:C262173 C196633:C196637 C131097:C131101 C65561:C65565 C983050:C983054 C917514:C917518 C851978:C851982 C786442:C786446 C720906:C720910 C655370:C655374 C589834:C589838 C524298:C524302 C458762:C458766 C393226:C393230 C327690:C327694 C262154:C262158 C196618:C196622 C131082:C131086 C65546:C65550 C983048 C917512 C851976 C786440 C720904 C655368 C589832 C524296 C458760 C393224 C327688 C262152 C196616 C131080 C65544 C983056:C983063 C917520:C917527 C851984:C851991 C786448:C786455 C720912:C720919 C655376:C655383 C589840:C589847 C524304:C524311 C458768:C458775 C393232:C393239 C327696:C327703 C262160:C262167 C196624:C196631 C131088:C131095" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C65550:C65557 C983073:C983076 C917537:C917540 C852001:C852004 C786465:C786468 C720929:C720932 C655393:C655396 C589857:C589860 C524321:C524324 C458785:C458788 C393249:C393252 C327713:C327716 C262177:C262180 C196641:C196644 C131105:C131108 C65569:C65572 C983069:C983071 C917533:C917535 C851997:C851999 C786461:C786463 C720925:C720927 C655389:C655391 C589853:C589855 C524317:C524319 C458781:C458783 C393245:C393247 C327709:C327711 C262173:C262175 C196637:C196639 C131101:C131103 C65565:C65567 C983063:C983067 C917527:C917531 C851991:C851995 C786455:C786459 C720919:C720923 C655383:C655387 C589847:C589851 C524311:C524315 C458775:C458779 C393239:C393243 C327703:C327707 C262167:C262171 C196631:C196635 C131095:C131099 C65559:C65563 C983048:C983052 C917512:C917516 C851976:C851980 C786440:C786444 C720904:C720908 C655368:C655372 C589832:C589836 C524296:C524300 C458760:C458764 C393224:C393228 C327688:C327692 C262152:C262156 C196616:C196620 C131080:C131084 C65544:C65548 C983046 C917510 C851974 C786438 C720902 C655366 C589830 C524294 C458758 C393222 C327686 C262150 C196614 C131078 C65542 C983054:C983061 C917518:C917525 C851982:C851989 C786446:C786453 C720910:C720917 C655374:C655381 C589838:C589845 C524302:C524309 C458766:C458773 C393230:C393237 C327694:C327701 C262158:C262165 C196622:C196629 C131086:C131093">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>

--- a/lab4.xlsx
+++ b/lab4.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bsu\Тестирование\software-testing-course\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ваня и Таня\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="3360" windowWidth="21600" windowHeight="11385" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Легенда" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="225">
   <si>
     <t>N/A</t>
   </si>
@@ -278,9 +278,6 @@
     <t>Пробел</t>
   </si>
   <si>
-    <t>1.2.2.1.7</t>
-  </si>
-  <si>
     <t>Строка с пробелом</t>
   </si>
   <si>
@@ -314,9 +311,6 @@
     <t>1.2.3.1.6</t>
   </si>
   <si>
-    <t>1.2.3.1.7</t>
-  </si>
-  <si>
     <t>1.2.3.2.1</t>
   </si>
   <si>
@@ -332,15 +326,6 @@
     <t>1.2.3.2.4</t>
   </si>
   <si>
-    <t>1.2.3.2.4.1</t>
-  </si>
-  <si>
-    <t>1.2.3.2.4.2</t>
-  </si>
-  <si>
-    <t>1.2.3.2.4.3</t>
-  </si>
-  <si>
     <t>Недопустимые спец.символы  (@#^%$)</t>
   </si>
   <si>
@@ -609,6 +594,117 @@
   </si>
   <si>
     <t>#20</t>
+  </si>
+  <si>
+    <t>1.2.2.2.5</t>
+  </si>
+  <si>
+    <t>Кол-во символов = max:</t>
+  </si>
+  <si>
+    <t>1.2.2.2.6</t>
+  </si>
+  <si>
+    <t>Кол-во символов = min:</t>
+  </si>
+  <si>
+    <t>1.2.2.2.10</t>
+  </si>
+  <si>
+    <t>1.2.2.3</t>
+  </si>
+  <si>
+    <t>1.2.2.4</t>
+  </si>
+  <si>
+    <t>Перенос строки при превышении длины столбца в таблице</t>
+  </si>
+  <si>
+    <t>1.2.3.2.6</t>
+  </si>
+  <si>
+    <t>1.2.3.2.7</t>
+  </si>
+  <si>
+    <t>1.2.3.2.8</t>
+  </si>
+  <si>
+    <t>1.2.3.2.9</t>
+  </si>
+  <si>
+    <t>1.2.3.2.10</t>
+  </si>
+  <si>
+    <t>1.2.3.3</t>
+  </si>
+  <si>
+    <t>ОК</t>
+  </si>
+  <si>
+    <t>1.2.4.1.1</t>
+  </si>
+  <si>
+    <t>1.2.4.1.2</t>
+  </si>
+  <si>
+    <t>1.2.4.1.3</t>
+  </si>
+  <si>
+    <t>1.2.4.1.4</t>
+  </si>
+  <si>
+    <t>1.2.4.1.5</t>
+  </si>
+  <si>
+    <t>1.2.4.1.6</t>
+  </si>
+  <si>
+    <t>1.2.4.2</t>
+  </si>
+  <si>
+    <t>1.2.4.2.1</t>
+  </si>
+  <si>
+    <t>1.2.4.2.2</t>
+  </si>
+  <si>
+    <t>1.2.4.2.2.1</t>
+  </si>
+  <si>
+    <t>1.2.4.2.3</t>
+  </si>
+  <si>
+    <t>1.2.4.2.4</t>
+  </si>
+  <si>
+    <t>1.2.4.2.5</t>
+  </si>
+  <si>
+    <t>1.2.4.2.6</t>
+  </si>
+  <si>
+    <t>1.2.4.2.7</t>
+  </si>
+  <si>
+    <t>1.2.4.2.8</t>
+  </si>
+  <si>
+    <t>1.2.4.2.9</t>
+  </si>
+  <si>
+    <t>1.2.4.2.10</t>
+  </si>
+  <si>
+    <t>1.2.4.3</t>
+  </si>
+  <si>
+    <t>1.8.3</t>
+  </si>
+  <si>
+    <t>Корректное отображение названий колонок по ширине</t>
+  </si>
+  <si>
+    <t>1.8.4</t>
   </si>
 </sst>
 </file>
@@ -1063,7 +1159,7 @@
     <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1208,6 +1304,66 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="16" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1216,39 +1372,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1264,39 +1393,25 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="16" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" xfId="2" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Контрольная ячейка" xfId="3" builtinId="23"/>
@@ -1655,20 +1770,20 @@
       <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
     </row>
     <row r="3" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
@@ -1677,107 +1792,107 @@
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="60"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="82"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="82"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="70"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="73"/>
     </row>
     <row r="8" spans="1:7" s="18" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="72"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="76"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="57"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="79"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="57"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="79"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="57"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="79"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="57"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="79"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="57"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="79"/>
     </row>
     <row r="14" spans="1:7" s="21" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="64"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="85"/>
     </row>
     <row r="15" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
@@ -1809,11 +1924,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A8:D8"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B5:D5"/>
@@ -1822,6 +1932,11 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1832,13 +1947,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:M113"/>
+  <dimension ref="A1:Q137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C115" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3:M3"/>
+      <selection pane="bottomRight" activeCell="D136" sqref="D136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1871,19 +1986,19 @@
         <v>4</v>
       </c>
       <c r="B2" s="6"/>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="74"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="87"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -1893,10 +2008,10 @@
         <v>23</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
@@ -1915,17 +2030,17 @@
       <c r="B4" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="77"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="90"/>
     </row>
     <row r="5" spans="1:13" ht="75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
@@ -1934,9 +2049,11 @@
       <c r="B5" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="81" t="s">
-        <v>186</v>
+      <c r="C5" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>181</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -1974,8 +2091,8 @@
         <v>37</v>
       </c>
       <c r="C7" s="28"/>
-      <c r="D7" s="81" t="s">
-        <v>186</v>
+      <c r="D7" s="58" t="s">
+        <v>181</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
@@ -1994,8 +2111,12 @@
       <c r="B8" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="82"/>
+      <c r="C8" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>186</v>
+      </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
@@ -2013,8 +2134,12 @@
       <c r="B9" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="82"/>
+      <c r="C9" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>186</v>
+      </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
@@ -2033,7 +2158,7 @@
         <v>43</v>
       </c>
       <c r="C10" s="28"/>
-      <c r="D10" s="78"/>
+      <c r="D10" s="55"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
@@ -2052,7 +2177,7 @@
         <v>45</v>
       </c>
       <c r="C11"/>
-      <c r="D11" s="78"/>
+      <c r="D11" s="55"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
@@ -2070,8 +2195,12 @@
       <c r="B12" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="82"/>
+      <c r="C12" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D12" s="52" t="s">
+        <v>186</v>
+      </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
@@ -2089,8 +2218,12 @@
       <c r="B13" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="82"/>
+      <c r="C13" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D13" s="52" t="s">
+        <v>186</v>
+      </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
@@ -2108,8 +2241,12 @@
       <c r="B14" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="82"/>
+      <c r="C14" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>186</v>
+      </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
@@ -2127,8 +2264,12 @@
       <c r="B15" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="53"/>
-      <c r="D15" s="82"/>
+      <c r="C15" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" s="52" t="s">
+        <v>186</v>
+      </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
@@ -2144,10 +2285,14 @@
         <v>54</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="82"/>
+        <v>99</v>
+      </c>
+      <c r="C16" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="D16" s="59" t="s">
+        <v>202</v>
+      </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
@@ -2163,10 +2308,14 @@
         <v>56</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="82"/>
+        <v>82</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>186</v>
+      </c>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
@@ -2177,15 +2326,15 @@
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="82"/>
+    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="55"/>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
@@ -2196,15 +2345,19 @@
       <c r="L18" s="14"/>
       <c r="M18" s="14"/>
     </row>
-    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="78"/>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="D19" s="59" t="s">
+        <v>202</v>
+      </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
@@ -2216,14 +2369,14 @@
       <c r="M19" s="14"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="52"/>
-      <c r="D20" s="82"/>
+      <c r="A20" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="55"/>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
@@ -2236,13 +2389,17 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="78"/>
+        <v>63</v>
+      </c>
+      <c r="B21" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D21" s="52" t="s">
+        <v>186</v>
+      </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
@@ -2254,14 +2411,18 @@
       <c r="M21" s="14"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="52"/>
-      <c r="D22" s="82"/>
+      <c r="A22" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D22" s="52" t="s">
+        <v>186</v>
+      </c>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
@@ -2274,13 +2435,17 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="52"/>
-      <c r="D23" s="82"/>
+        <v>69</v>
+      </c>
+      <c r="B23" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="C23" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D23" s="52" t="s">
+        <v>186</v>
+      </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
@@ -2292,14 +2457,18 @@
       <c r="M23" s="14"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="43" t="s">
-        <v>69</v>
+      <c r="A24" s="45" t="s">
+        <v>188</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="78"/>
+        <v>189</v>
+      </c>
+      <c r="C24" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D24" s="52" t="s">
+        <v>186</v>
+      </c>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
@@ -2311,14 +2480,14 @@
       <c r="M24" s="14"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="52"/>
-      <c r="D25" s="82"/>
+      <c r="A25" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="B25" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="28"/>
+      <c r="D25" s="55"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
@@ -2331,13 +2500,17 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="45" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B26" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="53"/>
-      <c r="D26" s="82"/>
+        <v>66</v>
+      </c>
+      <c r="C26" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="D26" s="59" t="s">
+        <v>202</v>
+      </c>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
@@ -2350,13 +2523,17 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B27" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="82"/>
+        <v>67</v>
+      </c>
+      <c r="C27" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D27" s="52" t="s">
+        <v>186</v>
+      </c>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
@@ -2369,16 +2546,16 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" s="54" t="s">
-        <v>125</v>
-      </c>
-      <c r="D28" s="81" t="s">
-        <v>188</v>
+        <v>86</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D28" s="52" t="s">
+        <v>186</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
@@ -2392,13 +2569,17 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="45" t="s">
-        <v>69</v>
+        <v>192</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29" s="52"/>
-      <c r="D29" s="82"/>
+        <v>98</v>
+      </c>
+      <c r="C29" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="58" t="s">
+        <v>183</v>
+      </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
@@ -2410,14 +2591,18 @@
       <c r="M29" s="14"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="78"/>
+      <c r="A30" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D30" s="52" t="s">
+        <v>186</v>
+      </c>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
@@ -2429,14 +2614,18 @@
       <c r="M30" s="14"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31"/>
-      <c r="D31" s="78"/>
+      <c r="A31" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="C31" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D31" s="52" t="s">
+        <v>186</v>
+      </c>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
@@ -2448,14 +2637,14 @@
       <c r="M31" s="14"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="B32" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="53"/>
-      <c r="D32" s="82"/>
+      <c r="A32" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="28"/>
+      <c r="D32" s="55"/>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
@@ -2466,15 +2655,15 @@
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="B33" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="52"/>
-      <c r="D33" s="82"/>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33"/>
+      <c r="D33" s="55"/>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
@@ -2485,15 +2674,19 @@
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="45" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="52"/>
-      <c r="D34" s="82"/>
+        <v>47</v>
+      </c>
+      <c r="C34" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D34" s="52" t="s">
+        <v>186</v>
+      </c>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
@@ -2504,15 +2697,19 @@
       <c r="L34" s="14"/>
       <c r="M34" s="14"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="45" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="52"/>
-      <c r="D35" s="82"/>
+        <v>49</v>
+      </c>
+      <c r="C35" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D35" s="52" t="s">
+        <v>186</v>
+      </c>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
@@ -2523,15 +2720,19 @@
       <c r="L35" s="14"/>
       <c r="M35" s="14"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="45" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" s="52"/>
-      <c r="D36" s="82"/>
+        <v>51</v>
+      </c>
+      <c r="C36" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D36" s="52" t="s">
+        <v>186</v>
+      </c>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
@@ -2542,18 +2743,18 @@
       <c r="L36" s="14"/>
       <c r="M36" s="14"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="45" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="C37" s="52" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D37" s="52" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
@@ -2565,18 +2766,18 @@
       <c r="L37" s="14"/>
       <c r="M37" s="14"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="B38" s="46" t="s">
-        <v>53</v>
+        <v>91</v>
+      </c>
+      <c r="B38" s="36" t="s">
+        <v>55</v>
       </c>
       <c r="C38" s="52" t="s">
-        <v>191</v>
-      </c>
-      <c r="D38" s="52" t="s">
-        <v>191</v>
+        <v>202</v>
+      </c>
+      <c r="D38" s="59" t="s">
+        <v>202</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
@@ -2588,15 +2789,19 @@
       <c r="L38" s="14"/>
       <c r="M38" s="14"/>
     </row>
-    <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="78"/>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D39" s="52" t="s">
+        <v>186</v>
+      </c>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
@@ -2607,19 +2812,15 @@
       <c r="L39" s="14"/>
       <c r="M39" s="14"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="B40" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="52" t="s">
-        <v>191</v>
-      </c>
-      <c r="D40" s="52" t="s">
-        <v>191</v>
-      </c>
+    <row r="40" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="28"/>
+      <c r="D40" s="55"/>
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
@@ -2630,15 +2831,19 @@
       <c r="L40" s="14"/>
       <c r="M40" s="14"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="B41" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="28"/>
-      <c r="D41" s="78"/>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D41" s="52" t="s">
+        <v>186</v>
+      </c>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
@@ -2649,19 +2854,15 @@
       <c r="L41" s="14"/>
       <c r="M41" s="14"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="B42" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="C42" s="52" t="s">
-        <v>191</v>
-      </c>
-      <c r="D42" s="52" t="s">
-        <v>191</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B42" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="28"/>
+      <c r="D42" s="55"/>
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
@@ -2672,18 +2873,18 @@
       <c r="L42" s="14"/>
       <c r="M42" s="14"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="B43" s="47" t="s">
-        <v>81</v>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="51" t="s">
+        <v>83</v>
       </c>
       <c r="C43" s="52" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D43" s="52" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
@@ -2695,15 +2896,19 @@
       <c r="L43" s="14"/>
       <c r="M43" s="14"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="B44" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="C44" s="28"/>
-      <c r="D44" s="78"/>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D44" s="52" t="s">
+        <v>186</v>
+      </c>
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
       <c r="G44" s="14"/>
@@ -2714,18 +2919,18 @@
       <c r="L44" s="14"/>
       <c r="M44" s="14"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="B45" s="47" t="s">
-        <v>66</v>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" s="48" t="s">
+        <v>65</v>
       </c>
       <c r="C45" s="52" t="s">
-        <v>191</v>
-      </c>
-      <c r="D45" s="52" t="s">
-        <v>191</v>
+        <v>202</v>
+      </c>
+      <c r="D45" s="59" t="s">
+        <v>202</v>
       </c>
       <c r="E45" s="14"/>
       <c r="F45" s="14"/>
@@ -2737,18 +2942,18 @@
       <c r="L45" s="14"/>
       <c r="M45" s="14"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="B46" s="47" t="s">
-        <v>67</v>
+        <v>104</v>
+      </c>
+      <c r="B46" s="48" t="s">
+        <v>191</v>
       </c>
       <c r="C46" s="52" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D46" s="52" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
@@ -2760,18 +2965,18 @@
       <c r="L46" s="14"/>
       <c r="M46" s="14"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="B47" s="47" t="s">
-        <v>68</v>
+        <v>196</v>
+      </c>
+      <c r="B47" s="48" t="s">
+        <v>189</v>
       </c>
       <c r="C47" s="52" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D47" s="52" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
@@ -2783,18 +2988,18 @@
       <c r="L47" s="14"/>
       <c r="M47" s="14"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="B48" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48" s="54" t="s">
-        <v>125</v>
-      </c>
-      <c r="D48" s="81" t="s">
-        <v>188</v>
+        <v>197</v>
+      </c>
+      <c r="B48" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D48" s="52" t="s">
+        <v>186</v>
       </c>
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
@@ -2805,19 +3010,22 @@
       <c r="K48" s="14"/>
       <c r="L48" s="14"/>
       <c r="M48" s="14"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O48" s="91"/>
+      <c r="P48" s="91"/>
+      <c r="Q48" s="91"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="B49" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="C49" s="53" t="s">
-        <v>191</v>
-      </c>
-      <c r="D49" s="53" t="s">
-        <v>191</v>
+        <v>198</v>
+      </c>
+      <c r="B49" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D49" s="52" t="s">
+        <v>186</v>
       </c>
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
@@ -2828,16 +3036,23 @@
       <c r="K49" s="14"/>
       <c r="L49" s="14"/>
       <c r="M49" s="14"/>
-    </row>
-    <row r="50" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="B50" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="C50" s="28"/>
-      <c r="D50" s="78"/>
+      <c r="O49" s="92"/>
+      <c r="P49" s="93"/>
+      <c r="Q49" s="91"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="B50" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D50" s="52" t="s">
+        <v>186</v>
+      </c>
       <c r="E50" s="14"/>
       <c r="F50" s="14"/>
       <c r="G50" s="14"/>
@@ -2847,19 +3062,22 @@
       <c r="K50" s="14"/>
       <c r="L50" s="14"/>
       <c r="M50" s="14"/>
-    </row>
-    <row r="51" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O50" s="94"/>
+      <c r="P50" s="95"/>
+      <c r="Q50" s="91"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="45" t="s">
-        <v>107</v>
+        <v>200</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="C51" s="52" t="s">
-        <v>191</v>
-      </c>
-      <c r="D51" s="83" t="s">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="C51" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="D51" s="58" t="s">
+        <v>183</v>
       </c>
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
@@ -2870,16 +3088,23 @@
       <c r="K51" s="14"/>
       <c r="L51" s="14"/>
       <c r="M51" s="14"/>
-    </row>
-    <row r="52" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="B52" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="C52" s="28"/>
-      <c r="D52" s="78"/>
+      <c r="O51" s="94"/>
+      <c r="P51" s="96"/>
+      <c r="Q51" s="91"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="B52" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="D52" s="53" t="s">
+        <v>186</v>
+      </c>
       <c r="E52" s="14"/>
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
@@ -2889,20 +3114,19 @@
       <c r="K52" s="14"/>
       <c r="L52" s="14"/>
       <c r="M52" s="14"/>
-    </row>
-    <row r="53" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="B53" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="C53" s="52" t="s">
-        <v>191</v>
-      </c>
-      <c r="D53" s="52" t="s">
-        <v>191</v>
-      </c>
+      <c r="O52" s="91"/>
+      <c r="P52" s="91"/>
+      <c r="Q52" s="91"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" s="28"/>
+      <c r="D53" s="55"/>
       <c r="E53" s="14"/>
       <c r="F53" s="14"/>
       <c r="G53" s="14"/>
@@ -2913,19 +3137,15 @@
       <c r="L53" s="14"/>
       <c r="M53" s="14"/>
     </row>
-    <row r="54" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="B54" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="C54" s="52" t="s">
-        <v>191</v>
-      </c>
-      <c r="D54" s="52" t="s">
-        <v>191</v>
-      </c>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C54"/>
+      <c r="D54" s="55"/>
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
       <c r="G54" s="14"/>
@@ -2936,15 +3156,19 @@
       <c r="L54" s="14"/>
       <c r="M54" s="14"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="B55" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="C55" s="29"/>
-      <c r="D55" s="78"/>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="B55" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D55" s="52" t="s">
+        <v>186</v>
+      </c>
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
       <c r="G55" s="14"/>
@@ -2955,18 +3179,18 @@
       <c r="L55" s="14"/>
       <c r="M55" s="14"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="B56" s="50" t="s">
-        <v>114</v>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="B56" s="36" t="s">
+        <v>49</v>
       </c>
       <c r="C56" s="52" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D56" s="52" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
@@ -2978,18 +3202,18 @@
       <c r="L56" s="14"/>
       <c r="M56" s="14"/>
     </row>
-    <row r="57" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="B57" s="50" t="s">
-        <v>115</v>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="B57" s="36" t="s">
+        <v>51</v>
       </c>
       <c r="C57" s="52" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D57" s="52" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E57" s="14"/>
       <c r="F57" s="14"/>
@@ -3001,15 +3225,19 @@
       <c r="L57" s="14"/>
       <c r="M57" s="14"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="B58" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="C58" s="28"/>
-      <c r="D58" s="78"/>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="B58" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D58" s="52" t="s">
+        <v>186</v>
+      </c>
       <c r="E58" s="14"/>
       <c r="F58" s="14"/>
       <c r="G58" s="14"/>
@@ -3020,18 +3248,18 @@
       <c r="L58" s="14"/>
       <c r="M58" s="14"/>
     </row>
-    <row r="59" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A59" s="13" t="s">
-        <v>126</v>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="45" t="s">
+        <v>207</v>
       </c>
       <c r="B59" s="36" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="C59" s="52" t="s">
-        <v>191</v>
-      </c>
-      <c r="D59" s="81" t="s">
-        <v>189</v>
+        <v>202</v>
+      </c>
+      <c r="D59" s="59" t="s">
+        <v>202</v>
       </c>
       <c r="E59" s="14"/>
       <c r="F59" s="14"/>
@@ -3043,16 +3271,20 @@
       <c r="L59" s="14"/>
       <c r="M59" s="14"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="B60" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="C60" s="84"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="78"/>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="B60" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C60" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D60" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="E60" s="14"/>
       <c r="F60" s="14"/>
       <c r="G60" s="14"/>
       <c r="H60" s="14"/>
@@ -3062,687 +3294,1206 @@
       <c r="L60" s="14"/>
       <c r="M60" s="14"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="41" t="s">
+    <row r="61" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="B61" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" s="28"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="14"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="B62" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D62" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="14"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="B63" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63" s="28"/>
+      <c r="D63" s="55"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="14"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="B64" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D64" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="14"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="14"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="B65" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="C65" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D65" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="14"/>
+      <c r="L65" s="14"/>
+      <c r="M65" s="14"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="B66" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="D66" s="59" t="s">
+        <v>202</v>
+      </c>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="14"/>
+      <c r="M66" s="14"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="B67" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="C67" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D67" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="14"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="14"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="B68" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="C68" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D68" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="14"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="B69" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="C69" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D69" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="14"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="B70" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C70" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D70" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="14"/>
+      <c r="O70" s="91"/>
+      <c r="P70" s="91"/>
+      <c r="Q70" s="91"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="B71" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C71" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D71" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="14"/>
+      <c r="L71" s="14"/>
+      <c r="M71" s="14"/>
+      <c r="O71" s="92"/>
+      <c r="P71" s="93"/>
+      <c r="Q71" s="91"/>
+    </row>
+    <row r="72" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="45" t="s">
+        <v>220</v>
+      </c>
+      <c r="B72" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C72" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D72" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="14"/>
+      <c r="M72" s="14"/>
+      <c r="O72" s="94"/>
+      <c r="P72" s="95"/>
+      <c r="Q72" s="91"/>
+    </row>
+    <row r="73" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="B73" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C73" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D73" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="14"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="14"/>
+      <c r="M73" s="14"/>
+    </row>
+    <row r="74" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74" s="28"/>
+      <c r="D74" s="55"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="14"/>
+      <c r="L74" s="14"/>
+      <c r="M74" s="14"/>
+    </row>
+    <row r="75" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D75" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="14"/>
+      <c r="K75" s="14"/>
+      <c r="L75" s="14"/>
+      <c r="M75" s="14"/>
+    </row>
+    <row r="76" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D76" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="14"/>
+      <c r="K76" s="14"/>
+      <c r="L76" s="14"/>
+      <c r="M76" s="14"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="B77" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="C77" s="29"/>
+      <c r="D77" s="55"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="14"/>
+      <c r="K77" s="14"/>
+      <c r="L77" s="14"/>
+      <c r="M77" s="14"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="B78" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C78" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D78" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="14"/>
+      <c r="K78" s="14"/>
+      <c r="L78" s="14"/>
+      <c r="M78" s="14"/>
+    </row>
+    <row r="79" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="B79" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="C79" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D79" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="14"/>
+      <c r="K79" s="14"/>
+      <c r="L79" s="14"/>
+      <c r="M79" s="14"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A80" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="B80" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="C80" s="28"/>
+      <c r="D80" s="55"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="14"/>
+      <c r="K80" s="14"/>
+      <c r="L80" s="14"/>
+      <c r="M80" s="14"/>
+    </row>
+    <row r="81" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A81" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B81" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C81" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D81" s="58" t="s">
+        <v>184</v>
+      </c>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="14"/>
+      <c r="K81" s="14"/>
+      <c r="L81" s="14"/>
+      <c r="M81" s="14"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="B82" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C82" s="61"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="55"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
+      <c r="J82" s="14"/>
+      <c r="K82" s="14"/>
+      <c r="L82" s="14"/>
+      <c r="M82" s="14"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="B83" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C83" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D83" s="67" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="B84" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C84" s="61"/>
+      <c r="D84" s="65"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="B85" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C85" s="61"/>
+      <c r="D85" s="65"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="B86" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C86" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D86" s="62" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="B87" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C87" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D87" s="62" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="B61" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="C61" s="85" t="s">
-        <v>191</v>
-      </c>
-      <c r="D61" s="90" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="39" t="s">
+      <c r="B88" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C88" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D88" s="62" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="B62" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="C62" s="84"/>
-      <c r="D62" s="88"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="43" t="s">
+      <c r="B89" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C89" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D89" s="62" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="B63" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="C63" s="84"/>
-      <c r="D63" s="88"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="43" t="s">
+      <c r="B90" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C90" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D90" s="62" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="B64" s="36" t="s">
+      <c r="B91" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C91" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D91" s="62" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="B92" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C92" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D92" s="62" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="B93" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C93" s="61"/>
+      <c r="D93" s="65"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="B94" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="C94" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D94" s="62" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="B95" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C95" s="61"/>
+      <c r="D95" s="65"/>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="B96" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="C96" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D96" s="62" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="B97" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="C97" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D97" s="62" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="B98" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C98" s="61"/>
+      <c r="D98" s="65"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="B99" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C99" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D99" s="62" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="B100" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C100" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D100" s="62" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="B101" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C101" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D101" s="62" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="B102" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C102" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D102" s="66" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="B103" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C103" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D103" s="67" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="B104" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C104" s="61"/>
+      <c r="D104" s="65"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="B105" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C64" s="85" t="s">
-        <v>191</v>
-      </c>
-      <c r="D64" s="85" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="B65" s="36" t="s">
+      <c r="C105" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D105" s="62" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="B106" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="C106" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D106" s="62" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="B107" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C65" s="85" t="s">
-        <v>191</v>
-      </c>
-      <c r="D65" s="85" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="B66" s="36" t="s">
+      <c r="C107" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D107" s="62" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="B108" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="C66" s="85" t="s">
-        <v>191</v>
-      </c>
-      <c r="D66" s="85" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="B67" s="36" t="s">
+      <c r="C108" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D108" s="62" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="B109" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C67" s="85" t="s">
-        <v>191</v>
-      </c>
-      <c r="D67" s="85" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="B68" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="C68" s="85" t="s">
-        <v>191</v>
-      </c>
-      <c r="D68" s="85" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="B69" s="36" t="s">
+      <c r="C109" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D109" s="62" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="B110" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C110" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D110" s="62" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="B111" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C111" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D111" s="62" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="B112" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C112" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D112" s="62" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="B113" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C113" s="61"/>
+      <c r="D113" s="65"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="B114" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="C114" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D114" s="67" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="B115" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C115" s="61"/>
+      <c r="D115" s="65"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="B116" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="C69" s="85" t="s">
-        <v>191</v>
-      </c>
-      <c r="D69" s="85" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="B70" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="C70" s="85" t="s">
-        <v>191</v>
-      </c>
-      <c r="D70" s="85" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="B71" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="C71" s="84"/>
-      <c r="D71" s="88"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="B72" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="C72" s="85" t="s">
-        <v>191</v>
-      </c>
-      <c r="D72" s="85" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="B73" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="C73" s="84"/>
-      <c r="D73" s="88"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="B74" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="C74" s="85" t="s">
-        <v>191</v>
-      </c>
-      <c r="D74" s="85" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="B75" s="47" t="s">
+      <c r="C116" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D116" s="67" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="B117" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="C75" s="85" t="s">
-        <v>191</v>
-      </c>
-      <c r="D75" s="85" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="B76" s="48" t="s">
+      <c r="C117" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D117" s="67" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="B118" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C76" s="84"/>
-      <c r="D76" s="88"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="B77" s="47" t="s">
+      <c r="C118" s="61"/>
+      <c r="D118" s="65"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="B119" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="C77" s="85" t="s">
-        <v>191</v>
-      </c>
-      <c r="D77" s="85" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="45" t="s">
+      <c r="C119" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D119" s="62" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="B120" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C120" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D120" s="62" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="B121" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C121" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D121" s="62" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="B122" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C122" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="D122" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="B123" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C123" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D123" s="62" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="B124" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="C124" s="61"/>
+      <c r="D124" s="65"/>
+    </row>
+    <row r="125" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="B125" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C125" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D125" s="60" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="B126" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="B78" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="C78" s="85" t="s">
-        <v>191</v>
-      </c>
-      <c r="D78" s="85" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="45" t="s">
+      <c r="C126" s="61"/>
+      <c r="D126" s="65"/>
+    </row>
+    <row r="127" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A127" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="B127" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="C127" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D127" s="67" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="B128" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="C128" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D128" s="67" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="B129" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="B79" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="C79" s="85" t="s">
-        <v>191</v>
-      </c>
-      <c r="D79" s="85" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="B80" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="C80" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="D80" s="89" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="45" t="s">
+      <c r="C129" s="61"/>
+      <c r="D129" s="65"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="B130" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C130" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D130" s="62" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A131" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="B131" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="C131" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D131" s="62" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="B81" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="C81" s="85" t="s">
-        <v>191</v>
-      </c>
-      <c r="D81" s="90" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="39" t="s">
+      <c r="B132" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C132" s="61"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="B82" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="C82" s="84"/>
-      <c r="D82" s="88"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="B83" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="C83" s="85" t="s">
-        <v>191</v>
-      </c>
-      <c r="D83" s="85" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="79" t="s">
-        <v>161</v>
-      </c>
-      <c r="B84" s="80" t="s">
-        <v>181</v>
-      </c>
-      <c r="C84" s="85" t="s">
-        <v>191</v>
-      </c>
-      <c r="D84" s="85" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="B85" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="C85" s="85" t="s">
-        <v>191</v>
-      </c>
-      <c r="D85" s="85" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="B86" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C86" s="85" t="s">
-        <v>191</v>
-      </c>
-      <c r="D86" s="85" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="B87" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="C87" s="85" t="s">
-        <v>191</v>
-      </c>
-      <c r="D87" s="85" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="B88" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="C88" s="85" t="s">
-        <v>191</v>
-      </c>
-      <c r="D88" s="85" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="B89" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="C89" s="85" t="s">
-        <v>191</v>
-      </c>
-      <c r="D89" s="85" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="B90" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="C90" s="85" t="s">
-        <v>191</v>
-      </c>
-      <c r="D90" s="85" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="B91" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="C91" s="84"/>
-      <c r="D91" s="88"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="B92" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="C92" s="85" t="s">
-        <v>191</v>
-      </c>
-      <c r="D92" s="90" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="43" t="s">
-        <v>170</v>
-      </c>
-      <c r="B93" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="C93" s="84"/>
-      <c r="D93" s="88"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="43" t="s">
-        <v>173</v>
-      </c>
-      <c r="B94" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="C94" s="85" t="s">
-        <v>191</v>
-      </c>
-      <c r="D94" s="90" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="43" t="s">
-        <v>174</v>
-      </c>
-      <c r="B95" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="C95" s="85" t="s">
-        <v>191</v>
-      </c>
-      <c r="D95" s="90" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="B96" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="C96" s="84"/>
-      <c r="D96" s="88"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="43" t="s">
-        <v>175</v>
-      </c>
-      <c r="B97" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="C97" s="85" t="s">
-        <v>191</v>
-      </c>
-      <c r="D97" s="85" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="B98" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="C98" s="85" t="s">
-        <v>191</v>
-      </c>
-      <c r="D98" s="85" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="43" t="s">
+      <c r="B133" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="C133" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="D133" s="66" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="B134" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="C134" s="64" t="s">
+        <v>186</v>
+      </c>
+      <c r="D134" s="67" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="49" t="s">
+        <v>222</v>
+      </c>
+      <c r="B135" s="97" t="s">
+        <v>223</v>
+      </c>
+      <c r="C135" s="64" t="s">
+        <v>186</v>
+      </c>
+      <c r="D135" s="67" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="B136" s="97" t="s">
+        <v>195</v>
+      </c>
+      <c r="C136" s="64" t="s">
+        <v>186</v>
+      </c>
+      <c r="D136" s="64" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C137" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B99" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="C99" s="85" t="s">
-        <v>191</v>
-      </c>
-      <c r="D99" s="85" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="B100" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="C100" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="D100" s="33" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="43" t="s">
+      <c r="D137" t="s">
         <v>178</v>
-      </c>
-      <c r="B101" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="C101" s="85" t="s">
-        <v>191</v>
-      </c>
-      <c r="D101" s="85" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="B102" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="C102" s="84"/>
-      <c r="D102" s="88"/>
-    </row>
-    <row r="103" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="45" t="s">
-        <v>180</v>
-      </c>
-      <c r="B103" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="C103" s="85" t="s">
-        <v>191</v>
-      </c>
-      <c r="D103" s="83" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="B104" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="C104" s="84"/>
-      <c r="D104" s="88"/>
-    </row>
-    <row r="105" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="B105" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="C105" s="85" t="s">
-        <v>191</v>
-      </c>
-      <c r="D105" s="90" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="B106" s="50" t="s">
-        <v>158</v>
-      </c>
-      <c r="C106" s="85" t="s">
-        <v>191</v>
-      </c>
-      <c r="D106" s="90" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="B107" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="C107" s="84"/>
-      <c r="D107" s="88"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="49" t="s">
-        <v>157</v>
-      </c>
-      <c r="B108" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="C108" s="85" t="s">
-        <v>191</v>
-      </c>
-      <c r="D108" s="85" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A109" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="B109" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="C109" s="85" t="s">
-        <v>191</v>
-      </c>
-      <c r="D109" s="85" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="B110" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="C110" s="84"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="49" t="s">
-        <v>154</v>
-      </c>
-      <c r="B111" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="C111" s="86" t="s">
-        <v>124</v>
-      </c>
-      <c r="D111" s="89" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="B112" s="50" t="s">
-        <v>123</v>
-      </c>
-      <c r="C112" s="87" t="s">
-        <v>191</v>
-      </c>
-      <c r="D112" s="90" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C113" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D113" t="s">
-        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -3751,7 +4502,7 @@
     <mergeCell ref="C4:M4"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C65550:C65557 C983073:C983076 C917537:C917540 C852001:C852004 C786465:C786468 C720929:C720932 C655393:C655396 C589857:C589860 C524321:C524324 C458785:C458788 C393249:C393252 C327713:C327716 C262177:C262180 C196641:C196644 C131105:C131108 C65569:C65572 C983069:C983071 C917533:C917535 C851997:C851999 C786461:C786463 C720925:C720927 C655389:C655391 C589853:C589855 C524317:C524319 C458781:C458783 C393245:C393247 C327709:C327711 C262173:C262175 C196637:C196639 C131101:C131103 C65565:C65567 C983063:C983067 C917527:C917531 C851991:C851995 C786455:C786459 C720919:C720923 C655383:C655387 C589847:C589851 C524311:C524315 C458775:C458779 C393239:C393243 C327703:C327707 C262167:C262171 C196631:C196635 C131095:C131099 C65559:C65563 C983048:C983052 C917512:C917516 C851976:C851980 C786440:C786444 C720904:C720908 C655368:C655372 C589832:C589836 C524296:C524300 C458760:C458764 C393224:C393228 C327688:C327692 C262152:C262156 C196616:C196620 C131080:C131084 C65544:C65548 C983046 C917510 C851974 C786438 C720902 C655366 C589830 C524294 C458758 C393222 C327686 C262150 C196614 C131078 C65542 C983054:C983061 C917518:C917525 C851982:C851989 C786446:C786453 C720910:C720917 C655374:C655381 C589838:C589845 C524302:C524309 C458766:C458773 C393230:C393237 C327694:C327701 C262158:C262165 C196622:C196629 C131086:C131093">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C65572:C65579 C983095:C983098 C917559:C917562 C852023:C852026 C786487:C786490 C720951:C720954 C655415:C655418 C589879:C589882 C524343:C524346 C458807:C458810 C393271:C393274 C327735:C327738 C262199:C262202 C196663:C196666 C131127:C131130 C65591:C65594 C983091:C983093 C917555:C917557 C852019:C852021 C786483:C786485 C720947:C720949 C655411:C655413 C589875:C589877 C524339:C524341 C458803:C458805 C393267:C393269 C327731:C327733 C262195:C262197 C196659:C196661 C131123:C131125 C65587:C65589 C983085:C983089 C917549:C917553 C852013:C852017 C786477:C786481 C720941:C720945 C655405:C655409 C589869:C589873 C524333:C524337 C458797:C458801 C393261:C393265 C327725:C327729 C262189:C262193 C196653:C196657 C131117:C131121 C65581:C65585 C983070:C983074 C917534:C917538 C851998:C852002 C786462:C786466 C720926:C720930 C655390:C655394 C589854:C589858 C524318:C524322 C458782:C458786 C393246:C393250 C327710:C327714 C262174:C262178 C196638:C196642 C131102:C131106 C65566:C65570 C983068 C917532 C851996 C786460 C720924 C655388 C589852 C524316 C458780 C393244 C327708 C262172 C196636 C131100 C65564 C983076:C983083 C917540:C917547 C852004:C852011 C786468:C786475 C720932:C720939 C655396:C655403 C589860:C589867 C524324:C524331 C458788:C458795 C393252:C393259 C327716:C327723 C262180:C262187 C196644:C196651 C131108:C131115">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>

--- a/lab4.xlsx
+++ b/lab4.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="244">
   <si>
     <t>N/A</t>
   </si>
@@ -705,6 +705,63 @@
   </si>
   <si>
     <t>1.8.4</t>
+  </si>
+  <si>
+    <t>1.5.5.1.1</t>
+  </si>
+  <si>
+    <t>1.5.5.1.2</t>
+  </si>
+  <si>
+    <t>1.5.5.1.3</t>
+  </si>
+  <si>
+    <t>1.5.5.1.4</t>
+  </si>
+  <si>
+    <t>1.5.5.1.5</t>
+  </si>
+  <si>
+    <t>1.5.5.1.6</t>
+  </si>
+  <si>
+    <t>1.5.5.2</t>
+  </si>
+  <si>
+    <t>1.5.5.2.1</t>
+  </si>
+  <si>
+    <t>1.5.5.2.2</t>
+  </si>
+  <si>
+    <t>1.5.5.2.2.1</t>
+  </si>
+  <si>
+    <t>1.5.5.2.3</t>
+  </si>
+  <si>
+    <t>1.5.5.2.4</t>
+  </si>
+  <si>
+    <t>1.5.5.2.5</t>
+  </si>
+  <si>
+    <t>1.5.5.2.6</t>
+  </si>
+  <si>
+    <t>1.5.5.2.7</t>
+  </si>
+  <si>
+    <t>1.5.5.2.8</t>
+  </si>
+  <si>
+    <t>1.5.5.2.9</t>
+  </si>
+  <si>
+    <t>1.5.5.2.10</t>
+  </si>
+  <si>
+    <t>1.5.5.3</t>
   </si>
 </sst>
 </file>
@@ -1159,7 +1216,7 @@
     <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1338,32 +1395,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="6" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="14" borderId="6" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1372,12 +1421,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1393,24 +1469,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="16" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1770,20 +1830,20 @@
       <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
     </row>
     <row r="3" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
@@ -1792,107 +1852,107 @@
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="82"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="80"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="82"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="80"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="73"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="90"/>
     </row>
     <row r="8" spans="1:7" s="18" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="76"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="92"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="78"/>
-      <c r="D9" s="79"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="77"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="78"/>
-      <c r="D10" s="79"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="77"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="78"/>
-      <c r="D11" s="79"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="77"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="78"/>
-      <c r="D12" s="79"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="77"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="77" t="s">
+      <c r="B13" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="78"/>
-      <c r="D13" s="79"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="77"/>
     </row>
     <row r="14" spans="1:7" s="21" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="74" t="s">
+      <c r="A14" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="84"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="85"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="84"/>
     </row>
     <row r="15" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
@@ -1924,6 +1984,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A8:D8"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B5:D5"/>
@@ -1932,11 +1997,6 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1947,13 +2007,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:Q137"/>
+  <dimension ref="A1:Q156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C115" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D136" sqref="D136"/>
+      <selection pane="bottomRight" activeCell="A138" sqref="A138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1986,19 +2046,19 @@
         <v>4</v>
       </c>
       <c r="B2" s="6"/>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="87"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -2030,17 +2090,17 @@
       <c r="B4" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="90"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="97"/>
     </row>
     <row r="5" spans="1:13" ht="75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
@@ -3010,9 +3070,9 @@
       <c r="K48" s="14"/>
       <c r="L48" s="14"/>
       <c r="M48" s="14"/>
-      <c r="O48" s="91"/>
-      <c r="P48" s="91"/>
-      <c r="Q48" s="91"/>
+      <c r="O48" s="68"/>
+      <c r="P48" s="68"/>
+      <c r="Q48" s="68"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="45" t="s">
@@ -3036,9 +3096,9 @@
       <c r="K49" s="14"/>
       <c r="L49" s="14"/>
       <c r="M49" s="14"/>
-      <c r="O49" s="92"/>
-      <c r="P49" s="93"/>
-      <c r="Q49" s="91"/>
+      <c r="O49" s="69"/>
+      <c r="P49" s="70"/>
+      <c r="Q49" s="68"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="45" t="s">
@@ -3062,9 +3122,9 @@
       <c r="K50" s="14"/>
       <c r="L50" s="14"/>
       <c r="M50" s="14"/>
-      <c r="O50" s="94"/>
-      <c r="P50" s="95"/>
-      <c r="Q50" s="91"/>
+      <c r="O50" s="71"/>
+      <c r="P50" s="72"/>
+      <c r="Q50" s="68"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="45" t="s">
@@ -3088,9 +3148,9 @@
       <c r="K51" s="14"/>
       <c r="L51" s="14"/>
       <c r="M51" s="14"/>
-      <c r="O51" s="94"/>
-      <c r="P51" s="96"/>
-      <c r="Q51" s="91"/>
+      <c r="O51" s="71"/>
+      <c r="P51" s="73"/>
+      <c r="Q51" s="68"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="45" t="s">
@@ -3114,9 +3174,9 @@
       <c r="K52" s="14"/>
       <c r="L52" s="14"/>
       <c r="M52" s="14"/>
-      <c r="O52" s="91"/>
-      <c r="P52" s="91"/>
-      <c r="Q52" s="91"/>
+      <c r="O52" s="68"/>
+      <c r="P52" s="68"/>
+      <c r="Q52" s="68"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="39" t="s">
@@ -3137,7 +3197,7 @@
       <c r="L53" s="14"/>
       <c r="M53" s="14"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="43" t="s">
         <v>102</v>
       </c>
@@ -3156,7 +3216,7 @@
       <c r="L54" s="14"/>
       <c r="M54" s="14"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="45" t="s">
         <v>203</v>
       </c>
@@ -3166,8 +3226,8 @@
       <c r="C55" s="52" t="s">
         <v>186</v>
       </c>
-      <c r="D55" s="52" t="s">
-        <v>186</v>
+      <c r="D55" s="60" t="s">
+        <v>0</v>
       </c>
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
@@ -3179,7 +3239,7 @@
       <c r="L55" s="14"/>
       <c r="M55" s="14"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="45" t="s">
         <v>204</v>
       </c>
@@ -3189,8 +3249,8 @@
       <c r="C56" s="52" t="s">
         <v>186</v>
       </c>
-      <c r="D56" s="52" t="s">
-        <v>186</v>
+      <c r="D56" s="60" t="s">
+        <v>0</v>
       </c>
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
@@ -3202,7 +3262,7 @@
       <c r="L56" s="14"/>
       <c r="M56" s="14"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="45" t="s">
         <v>205</v>
       </c>
@@ -3212,8 +3272,8 @@
       <c r="C57" s="52" t="s">
         <v>186</v>
       </c>
-      <c r="D57" s="52" t="s">
-        <v>186</v>
+      <c r="D57" s="60" t="s">
+        <v>0</v>
       </c>
       <c r="E57" s="14"/>
       <c r="F57" s="14"/>
@@ -3225,7 +3285,7 @@
       <c r="L57" s="14"/>
       <c r="M57" s="14"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="45" t="s">
         <v>206</v>
       </c>
@@ -3235,8 +3295,8 @@
       <c r="C58" s="52" t="s">
         <v>186</v>
       </c>
-      <c r="D58" s="52" t="s">
-        <v>186</v>
+      <c r="D58" s="60" t="s">
+        <v>0</v>
       </c>
       <c r="E58" s="14"/>
       <c r="F58" s="14"/>
@@ -3248,7 +3308,7 @@
       <c r="L58" s="14"/>
       <c r="M58" s="14"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="45" t="s">
         <v>207</v>
       </c>
@@ -3258,8 +3318,8 @@
       <c r="C59" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="D59" s="59" t="s">
-        <v>202</v>
+      <c r="D59" s="60" t="s">
+        <v>0</v>
       </c>
       <c r="E59" s="14"/>
       <c r="F59" s="14"/>
@@ -3271,7 +3331,7 @@
       <c r="L59" s="14"/>
       <c r="M59" s="14"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="45" t="s">
         <v>208</v>
       </c>
@@ -3281,8 +3341,8 @@
       <c r="C60" s="52" t="s">
         <v>186</v>
       </c>
-      <c r="D60" s="52" t="s">
-        <v>186</v>
+      <c r="D60" s="60" t="s">
+        <v>0</v>
       </c>
       <c r="E60" s="14"/>
       <c r="F60" s="14"/>
@@ -3294,7 +3354,7 @@
       <c r="L60" s="14"/>
       <c r="M60" s="14"/>
     </row>
-    <row r="61" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="43" t="s">
         <v>209</v>
       </c>
@@ -3313,7 +3373,7 @@
       <c r="L61" s="14"/>
       <c r="M61" s="14"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="45" t="s">
         <v>210</v>
       </c>
@@ -3323,8 +3383,8 @@
       <c r="C62" s="52" t="s">
         <v>186</v>
       </c>
-      <c r="D62" s="52" t="s">
-        <v>186</v>
+      <c r="D62" s="60" t="s">
+        <v>0</v>
       </c>
       <c r="E62" s="14"/>
       <c r="F62" s="14"/>
@@ -3336,7 +3396,7 @@
       <c r="L62" s="14"/>
       <c r="M62" s="14"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="45" t="s">
         <v>211</v>
       </c>
@@ -3355,7 +3415,7 @@
       <c r="L63" s="14"/>
       <c r="M63" s="14"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="43" t="s">
         <v>212</v>
       </c>
@@ -3365,8 +3425,8 @@
       <c r="C64" s="52" t="s">
         <v>186</v>
       </c>
-      <c r="D64" s="52" t="s">
-        <v>186</v>
+      <c r="D64" s="60" t="s">
+        <v>0</v>
       </c>
       <c r="E64" s="14"/>
       <c r="F64" s="14"/>
@@ -3378,7 +3438,7 @@
       <c r="L64" s="14"/>
       <c r="M64" s="14"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="45" t="s">
         <v>213</v>
       </c>
@@ -3388,8 +3448,8 @@
       <c r="C65" s="52" t="s">
         <v>186</v>
       </c>
-      <c r="D65" s="52" t="s">
-        <v>186</v>
+      <c r="D65" s="60" t="s">
+        <v>0</v>
       </c>
       <c r="E65" s="14"/>
       <c r="F65" s="14"/>
@@ -3401,7 +3461,7 @@
       <c r="L65" s="14"/>
       <c r="M65" s="14"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="45" t="s">
         <v>214</v>
       </c>
@@ -3411,8 +3471,8 @@
       <c r="C66" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="D66" s="59" t="s">
-        <v>202</v>
+      <c r="D66" s="60" t="s">
+        <v>0</v>
       </c>
       <c r="E66" s="14"/>
       <c r="F66" s="14"/>
@@ -3424,7 +3484,7 @@
       <c r="L66" s="14"/>
       <c r="M66" s="14"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="45" t="s">
         <v>215</v>
       </c>
@@ -3434,8 +3494,8 @@
       <c r="C67" s="52" t="s">
         <v>186</v>
       </c>
-      <c r="D67" s="52" t="s">
-        <v>186</v>
+      <c r="D67" s="60" t="s">
+        <v>0</v>
       </c>
       <c r="E67" s="14"/>
       <c r="F67" s="14"/>
@@ -3447,7 +3507,7 @@
       <c r="L67" s="14"/>
       <c r="M67" s="14"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="45" t="s">
         <v>216</v>
       </c>
@@ -3457,8 +3517,8 @@
       <c r="C68" s="52" t="s">
         <v>186</v>
       </c>
-      <c r="D68" s="52" t="s">
-        <v>186</v>
+      <c r="D68" s="60" t="s">
+        <v>0</v>
       </c>
       <c r="E68" s="14"/>
       <c r="F68" s="14"/>
@@ -3470,7 +3530,7 @@
       <c r="L68" s="14"/>
       <c r="M68" s="14"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="45" t="s">
         <v>217</v>
       </c>
@@ -3480,8 +3540,8 @@
       <c r="C69" s="52" t="s">
         <v>186</v>
       </c>
-      <c r="D69" s="52" t="s">
-        <v>186</v>
+      <c r="D69" s="60" t="s">
+        <v>0</v>
       </c>
       <c r="E69" s="14"/>
       <c r="F69" s="14"/>
@@ -3493,7 +3553,7 @@
       <c r="L69" s="14"/>
       <c r="M69" s="14"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="45" t="s">
         <v>218</v>
       </c>
@@ -3503,8 +3563,8 @@
       <c r="C70" s="52" t="s">
         <v>186</v>
       </c>
-      <c r="D70" s="52" t="s">
-        <v>186</v>
+      <c r="D70" s="60" t="s">
+        <v>0</v>
       </c>
       <c r="E70" s="14"/>
       <c r="F70" s="14"/>
@@ -3515,11 +3575,11 @@
       <c r="K70" s="14"/>
       <c r="L70" s="14"/>
       <c r="M70" s="14"/>
-      <c r="O70" s="91"/>
-      <c r="P70" s="91"/>
-      <c r="Q70" s="91"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O70" s="68"/>
+      <c r="P70" s="68"/>
+      <c r="Q70" s="68"/>
+    </row>
+    <row r="71" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="45" t="s">
         <v>219</v>
       </c>
@@ -3529,8 +3589,8 @@
       <c r="C71" s="52" t="s">
         <v>186</v>
       </c>
-      <c r="D71" s="52" t="s">
-        <v>186</v>
+      <c r="D71" s="60" t="s">
+        <v>0</v>
       </c>
       <c r="E71" s="14"/>
       <c r="F71" s="14"/>
@@ -3541,11 +3601,11 @@
       <c r="K71" s="14"/>
       <c r="L71" s="14"/>
       <c r="M71" s="14"/>
-      <c r="O71" s="92"/>
-      <c r="P71" s="93"/>
-      <c r="Q71" s="91"/>
-    </row>
-    <row r="72" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O71" s="69"/>
+      <c r="P71" s="70"/>
+      <c r="Q71" s="68"/>
+    </row>
+    <row r="72" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="45" t="s">
         <v>220</v>
       </c>
@@ -3555,8 +3615,8 @@
       <c r="C72" s="52" t="s">
         <v>186</v>
       </c>
-      <c r="D72" s="52" t="s">
-        <v>186</v>
+      <c r="D72" s="60" t="s">
+        <v>0</v>
       </c>
       <c r="E72" s="14"/>
       <c r="F72" s="14"/>
@@ -3567,9 +3627,9 @@
       <c r="K72" s="14"/>
       <c r="L72" s="14"/>
       <c r="M72" s="14"/>
-      <c r="O72" s="94"/>
-      <c r="P72" s="95"/>
-      <c r="Q72" s="91"/>
+      <c r="O72" s="71"/>
+      <c r="P72" s="72"/>
+      <c r="Q72" s="68"/>
     </row>
     <row r="73" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="45" t="s">
@@ -4323,7 +4383,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="39" t="s">
         <v>174</v>
       </c>
@@ -4333,166 +4393,420 @@
       <c r="C124" s="61"/>
       <c r="D124" s="65"/>
     </row>
-    <row r="125" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="45" t="s">
+    <row r="125" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="B125" s="36" t="s">
+      <c r="B125" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C125"/>
+      <c r="D125" s="55"/>
+    </row>
+    <row r="126" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="B126" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C126" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D126" s="60" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="B127" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C127" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D127" s="60" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="B128" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C128" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D128" s="60" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="B129" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C129" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D129" s="60" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="B130" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C130" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="D130" s="60" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="B131" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C131" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D131" s="60" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="B132" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C132" s="28"/>
+      <c r="D132" s="55"/>
+    </row>
+    <row r="133" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="45" t="s">
+        <v>232</v>
+      </c>
+      <c r="B133" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="C133" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D133" s="60" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="B134" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C134" s="28"/>
+      <c r="D134" s="55"/>
+    </row>
+    <row r="135" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="B135" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="C135" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D135" s="60" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="B136" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="C136" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D136" s="60" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="B137" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C137" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="D137" s="60" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="B138" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="C138" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D138" s="60" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="B139" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="C139" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D139" s="60" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="B140" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="C140" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D140" s="60" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="B141" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C141" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D141" s="60" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="B142" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C142" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D142" s="60" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="B143" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C143" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D143" s="60" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="B144" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="C125" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="D125" s="60" t="s">
+      <c r="C144" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D144" s="60" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="37" t="s">
+    <row r="145" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="B126" s="38" t="s">
+      <c r="B145" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="C126" s="61"/>
-      <c r="D126" s="65"/>
-    </row>
-    <row r="127" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A127" s="49" t="s">
+      <c r="C145" s="61"/>
+      <c r="D145" s="65"/>
+    </row>
+    <row r="146" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A146" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="B127" s="50" t="s">
+      <c r="B146" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="C127" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="D127" s="67" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A128" s="49" t="s">
+      <c r="C146" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D146" s="67" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A147" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="B128" s="50" t="s">
+      <c r="B147" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="C128" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="D128" s="67" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="37" t="s">
+      <c r="C147" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D147" s="67" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="B129" s="38" t="s">
+      <c r="B148" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="C129" s="61"/>
-      <c r="D129" s="65"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="49" t="s">
+      <c r="C148" s="61"/>
+      <c r="D148" s="65"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="B130" s="50" t="s">
+      <c r="B149" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="C130" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="D130" s="62" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131" s="49" t="s">
+      <c r="C149" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D149" s="62" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A150" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="B131" s="50" t="s">
+      <c r="B150" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="C131" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="D131" s="62" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="37" t="s">
+      <c r="C150" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D150" s="62" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="B132" s="38" t="s">
+      <c r="B151" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="C132" s="61"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="49" t="s">
+      <c r="C151" s="61"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="B133" s="50" t="s">
+      <c r="B152" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="C133" s="63" t="s">
+      <c r="C152" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="D133" s="66" t="s">
+      <c r="D152" s="66" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="49" t="s">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="B134" s="50" t="s">
+      <c r="B153" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="C134" s="64" t="s">
-        <v>186</v>
-      </c>
-      <c r="D134" s="67" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="49" t="s">
+      <c r="C153" s="64" t="s">
+        <v>186</v>
+      </c>
+      <c r="D153" s="67" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="49" t="s">
         <v>222</v>
       </c>
-      <c r="B135" s="97" t="s">
+      <c r="B154" s="74" t="s">
         <v>223</v>
       </c>
-      <c r="C135" s="64" t="s">
-        <v>186</v>
-      </c>
-      <c r="D135" s="67" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="49" t="s">
+      <c r="C154" s="64" t="s">
+        <v>186</v>
+      </c>
+      <c r="D154" s="67" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="49" t="s">
         <v>224</v>
       </c>
-      <c r="B136" s="97" t="s">
+      <c r="B155" s="74" t="s">
         <v>195</v>
       </c>
-      <c r="C136" s="64" t="s">
-        <v>186</v>
-      </c>
-      <c r="D136" s="64" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C137" s="4" t="s">
+      <c r="C155" s="64" t="s">
+        <v>186</v>
+      </c>
+      <c r="D155" s="98" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C156" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D156" t="s">
         <v>178</v>
       </c>
     </row>
@@ -4502,7 +4816,7 @@
     <mergeCell ref="C4:M4"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C65572:C65579 C983095:C983098 C917559:C917562 C852023:C852026 C786487:C786490 C720951:C720954 C655415:C655418 C589879:C589882 C524343:C524346 C458807:C458810 C393271:C393274 C327735:C327738 C262199:C262202 C196663:C196666 C131127:C131130 C65591:C65594 C983091:C983093 C917555:C917557 C852019:C852021 C786483:C786485 C720947:C720949 C655411:C655413 C589875:C589877 C524339:C524341 C458803:C458805 C393267:C393269 C327731:C327733 C262195:C262197 C196659:C196661 C131123:C131125 C65587:C65589 C983085:C983089 C917549:C917553 C852013:C852017 C786477:C786481 C720941:C720945 C655405:C655409 C589869:C589873 C524333:C524337 C458797:C458801 C393261:C393265 C327725:C327729 C262189:C262193 C196653:C196657 C131117:C131121 C65581:C65585 C983070:C983074 C917534:C917538 C851998:C852002 C786462:C786466 C720926:C720930 C655390:C655394 C589854:C589858 C524318:C524322 C458782:C458786 C393246:C393250 C327710:C327714 C262174:C262178 C196638:C196642 C131102:C131106 C65566:C65570 C983068 C917532 C851996 C786460 C720924 C655388 C589852 C524316 C458780 C393244 C327708 C262172 C196636 C131100 C65564 C983076:C983083 C917540:C917547 C852004:C852011 C786468:C786475 C720932:C720939 C655396:C655403 C589860:C589867 C524324:C524331 C458788:C458795 C393252:C393259 C327716:C327723 C262180:C262187 C196644:C196651 C131108:C131115">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C65591:C65598 C983114:C983117 C917578:C917581 C852042:C852045 C786506:C786509 C720970:C720973 C655434:C655437 C589898:C589901 C524362:C524365 C458826:C458829 C393290:C393293 C327754:C327757 C262218:C262221 C196682:C196685 C131146:C131149 C65610:C65613 C983110:C983112 C917574:C917576 C852038:C852040 C786502:C786504 C720966:C720968 C655430:C655432 C589894:C589896 C524358:C524360 C458822:C458824 C393286:C393288 C327750:C327752 C262214:C262216 C196678:C196680 C131142:C131144 C65606:C65608 C983104:C983108 C917568:C917572 C852032:C852036 C786496:C786500 C720960:C720964 C655424:C655428 C589888:C589892 C524352:C524356 C458816:C458820 C393280:C393284 C327744:C327748 C262208:C262212 C196672:C196676 C131136:C131140 C65600:C65604 C983089:C983093 C917553:C917557 C852017:C852021 C786481:C786485 C720945:C720949 C655409:C655413 C589873:C589877 C524337:C524341 C458801:C458805 C393265:C393269 C327729:C327733 C262193:C262197 C196657:C196661 C131121:C131125 C65585:C65589 C983087 C917551 C852015 C786479 C720943 C655407 C589871 C524335 C458799 C393263 C327727 C262191 C196655 C131119 C65583 C983095:C983102 C917559:C917566 C852023:C852030 C786487:C786494 C720951:C720958 C655415:C655422 C589879:C589886 C524343:C524350 C458807:C458814 C393271:C393278 C327735:C327742 C262199:C262206 C196663:C196670 C131127:C131134">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>
